--- a/data/interim/manual_geocoded_addresses.xlsx
+++ b/data/interim/manual_geocoded_addresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A46DB-56F2-B545-A686-9E7C52E4A19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38020CE1-7EAE-6C44-B519-E5AFAB670372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>lat</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>facility_address</t>
+  </si>
+  <si>
+    <t>3001 W Berks Sreet</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,6 +601,17 @@
         <v>-75.148150400000006</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>39.985798065031773</v>
+      </c>
+      <c r="C15">
+        <v>-75.183213052724199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
